--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_RE_Potentials.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_RE_Potentials.xlsx
@@ -425,7 +425,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -434,12 +434,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -574,12 +574,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -714,12 +714,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -888,12 +888,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1062,12 +1062,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1270,12 +1270,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1516,12 +1516,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1690,12 +1690,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1830,12 +1830,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1948,12 +1948,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2066,12 +2066,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2276,12 +2276,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2497,12 +2497,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2776,12 +2776,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>

--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_RE_Potentials.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_RE_Potentials.xlsx
@@ -427,14 +427,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_GEO_LARGEBINARY</t>
+          <t>UC_GEO_LARGEFLASH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EGEOC*BIN*</t>
+          <t>EGEOC*FLSH*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Geothermal potential for large binary technologies</t>
+          <t>Geothermal potential for large flash technologies</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UC_GEO_LARGEFLASH</t>
+          <t>UC_GEO_SMALLBINARY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EGEOC*FLSH*</t>
+          <t>EGEOBI*</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.345</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Geothermal potential for large flash technologies</t>
+          <t>Geothermal potential for small binary technologies</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -704,554 +704,554 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.635</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.685</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UC_GEO_SMALLBINARY</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC_GEO_SMALLFLASH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EGEOBI*</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EGEOF*</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.345</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Geothermal potential for small binary technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.635</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Geothermal potential for small flash technologies</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.575</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.685</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UC_GEO_SMALLFLASH</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC_GEONEW_TOTAL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EGEOF*</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EGEO*</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Geothermal potential for small flash technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.325</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.575</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Total geothermal potential for new power plants</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.645</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.035</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>~UC_T</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>UC_N</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Pset_Set</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Pset_PN</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>LimType</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>UC_CAP</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>UC_RHSRT~NI</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>UC_RHSRT~SI</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>UC_RHSRT~0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UC_GEONEW_TOTAL</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC_GEO_LARGEBINARY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>EGEO*</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EGEOC*BIN*</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Total geothermal potential for new power plants</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.645</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Geothermal potential for large binary technologies</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1263,14 +1263,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1509,14 +1509,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_HYDRO_RoR_lrg</t>
+          <t>UC_HYDRO_DAM_NEW</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EHYD*RR*new*</t>
+          <t>EHY*DAM*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.168</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1625,14 +1625,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>New Hydro - Large RoR</t>
+          <t>New Hydro - Dams</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1642,424 +1642,434 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.215</t>
+          <t>0.978</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>UC_PUMPHYD_STG_LRG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EHY*PUM*L</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pumped hydro - large (lake onslow)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>~UC_T</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>UC_N</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Pset_Set</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Pset_PN</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>LimType</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>UC_CAP</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>UC_RHSRT~NI</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>UC_RHSRT~SI</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>UC_RHSRT~0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UC_HYDRO_DAM_NEW</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>EHY*DAM*</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.168</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>New Hydro - Dams</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.978</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>UC_PUMPHYD_STG_SML</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EHY*PUM*S</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pumped hydro -small/generic</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UC_PUMPHYD_STG_LRG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>EHY*PUM*L</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Pumped hydro - large (lake onslow)</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_HYDRO_RoRsm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EHYD*RR*Sma*</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>New Hydro - Small RoR</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.076</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>0.196</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>UC_PUMPHYD_STG_SML</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>EHY*PUM*S</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Pumped hydro -small/generic</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>0.196</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.064</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.226</t>
         </is>
       </c>
     </row>
@@ -2069,130 +2079,120 @@
           <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UC_N</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_T</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UC_HYDRO_RoRsm</t>
+          <t>UC_N</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC_HYDRO_RoR_lrg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>EHYD*RR*Sma*</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>EHYD*RR*new*</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.016</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>New Hydro - Small RoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.076</t>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>New Hydro - Large RoR</t>
         </is>
       </c>
     </row>
@@ -2204,12 +2204,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -2238,12 +2238,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -2269,14 +2269,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2490,14 +2490,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2539,12 +2539,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
+          <t>UC_RHSR~NI</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~SI</t>
+          <t>UC_RHSR~SI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_WIND_CONSENTED</t>
+          <t>UC_WIND_OFFSHORE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EWIN*CONS*</t>
+          <t>EWIN*OFF*FIX*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.508</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2606,177 +2606,72 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Onshore (consented/initial works completed) wind potential 2021</t>
+          <t>Fixed offshore wind potential</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UC_WIND_HIGHCF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EWIN*HIG*</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.865</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Onshore (High capacity Factor) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UC_WIND_LOWCF</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EWIN*LOW*</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Onshore (Low capacity Factor) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UC_WIND_DISTR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EWIN*DIST*</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Onshore (small - locally embedded) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2818,12 +2713,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>UC_RHSR~NI</t>
+          <t>UC_RHSRT~NI</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>UC_RHSR~SI</t>
+          <t>UC_RHSRT~SI</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2840,7 +2735,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UC_WIND_OFFSHORE</t>
+          <t>UC_WIND_CONSENTED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2850,7 +2745,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EWIN*OFF*FIX*</t>
+          <t>EWIN*CONS*</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2870,12 +2765,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>0.508</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2885,122 +2780,164 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Fixed offshore wind potential</t>
+          <t>Onshore (consented/initial works completed) wind potential 2021</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC_WIND_HIGHCF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EWIN*HIG*</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>2.865</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-      <c r="J14" t="n">
-        <v/>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Onshore (High capacity Factor) wind potential 2030</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC_WIND_LOWCF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EWIN*LOW*</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-      <c r="J15" t="n">
-        <v/>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Onshore (Low capacity Factor) wind potential 2030</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC_WIND_DISTR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EWIN*DIST*</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-      <c r="J16" t="n">
-        <v/>
+          <t>0.215</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Onshore (small - locally embedded) wind potential 2030</t>
+        </is>
       </c>
     </row>
   </sheetData>
